--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_08_end.xlsx
@@ -804,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="레인저"]뭐해?
+    <t xml:space="preserve">[name="레인저"]뭐하는 겐가?
 </t>
   </si>
   <si>
